--- a/data/trans_orig/Q64D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q64D_R-Provincia-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.708196433389872</v>
+        <v>4.741904822931371</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.74855815987154</v>
+        <v>10.62174313768286</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.424803326435443</v>
+        <v>8.360403146592262</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.14416064874983</v>
+        <v>2.096634445038848</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.757924498685004</v>
+        <v>2.960757492313113</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.714796844882845</v>
+        <v>3.76465663256319</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.024629737170324</v>
+        <v>5.101795939674891</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.920307591750468</v>
+        <v>2.86908844800263</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.36849887625206</v>
+        <v>4.438649043226393</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8.586251111524609</v>
+        <v>8.628221791958689</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8.218298548630113</v>
+        <v>7.884758674245622</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2.848292535432916</v>
+        <v>2.931044083556517</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.93510235438738</v>
+        <v>11.04992902852605</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25.75718819074272</v>
+        <v>26.14920275981322</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.44716932759184</v>
+        <v>18.41031577123859</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.222200524755666</v>
+        <v>6.885305878455737</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.047680627453843</v>
+        <v>8.173196285793198</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.40978064950472</v>
+        <v>11.59957620676074</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>14.16805342768565</v>
+        <v>13.57547970260197</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.101616432077042</v>
+        <v>7.011509286484541</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.500243743406694</v>
+        <v>8.72104388667727</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18.41693540312055</v>
+        <v>17.69606364368109</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15.18451792096091</v>
+        <v>14.60860844917568</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>5.980180742679346</v>
+        <v>6.174221469588415</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>5.571018666576768</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>9.5801908694852</v>
+        <v>9.580190869485198</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>11.17042734059585</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.456252975803979</v>
+        <v>8.324396890910776</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.794443608357287</v>
+        <v>8.69373690807701</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.420817490540259</v>
+        <v>4.417485397609862</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.432618520703241</v>
+        <v>4.547094664541845</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.499479671980763</v>
+        <v>7.580399962075967</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.843430642247812</v>
+        <v>8.075737377660735</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>3.756356678039531</v>
+        <v>3.814487539086276</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>6.276246549783829</v>
+        <v>6.26098039858823</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>8.955549011572755</v>
+        <v>8.995976519797598</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9.050090275338011</v>
+        <v>9.254099286077549</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4.612139552481369</v>
+        <v>4.545646045413747</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>5.979403911559392</v>
+        <v>6.016263029359713</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.89912485578784</v>
+        <v>14.81921240674281</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.72261710440252</v>
+        <v>17.64673885597763</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.268547544875732</v>
+        <v>7.451944699944187</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.24374467270512</v>
+        <v>11.54459587717268</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>15.77419353902148</v>
+        <v>16.26415648551879</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.68747872240731</v>
+        <v>17.9804343010216</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>9.532915628038543</v>
+        <v>9.216896532542101</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>17.36312996643907</v>
+        <v>16.55693151771943</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>13.94486806224764</v>
+        <v>13.81258498546644</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15.59447015363833</v>
+        <v>15.55725957648003</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.352168433005938</v>
+        <v>7.282838617817839</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>11.99664330787061</v>
+        <v>12.34788019769469</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>8.177507993409675</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>8.885697548234546</v>
+        <v>8.885697548234548</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.117915757740374</v>
+        <v>3.961045343103888</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.448386535704707</v>
+        <v>2.393823021953797</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.652264327930366</v>
+        <v>4.769696970402237</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.01777116455528</v>
+        <v>4.171764731380657</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.330721502041498</v>
+        <v>3.465334528897094</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.641159863196544</v>
+        <v>3.649994652182253</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.096246737177843</v>
+        <v>5.143519269485849</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.198455291884637</v>
+        <v>8.195738778340273</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.359515660211265</v>
+        <v>4.215429204117384</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.237897605368722</v>
+        <v>3.335422654967452</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5.564370051184405</v>
+        <v>5.629943682812516</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.927649343445877</v>
+        <v>6.828231324774292</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.041555635796991</v>
+        <v>9.278484251643579</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.258153892570872</v>
+        <v>5.951225384607936</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.87319179098081</v>
+        <v>12.79817916225786</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.9164305926898</v>
+        <v>10.97891150464102</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.873478439349858</v>
+        <v>11.80579645603433</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.00515197561575</v>
+        <v>9.837790386352731</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>19.31102926397014</v>
+        <v>18.09296931973349</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.41804725643045</v>
+        <v>15.33832967622143</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.649313323786082</v>
+        <v>8.316193117749254</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.362920763639947</v>
+        <v>6.457296323738915</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12.73457329601048</v>
+        <v>12.29322403366666</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>11.71331929834926</v>
+        <v>11.62966364978598</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>17.23179021242373</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>9.615802164924302</v>
+        <v>9.6158021649243</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.156083617580303</v>
+        <v>5.300146468141061</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.477218546127947</v>
+        <v>6.673932184551611</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14.8038350073078</v>
+        <v>14.43899897262159</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.236145039961339</v>
+        <v>4.357023016620612</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4.930418237737561</v>
+        <v>4.884290703087919</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.101439745776887</v>
+        <v>4.109270231430394</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7.5599310264798</v>
+        <v>7.234117885958589</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>8.241372268338331</v>
+        <v>8.155156515810782</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>5.533035798020353</v>
+        <v>5.785592382822192</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.217039954394949</v>
+        <v>6.386625030274352</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12.46767076836746</v>
+        <v>12.79431037678381</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.954764289070459</v>
+        <v>7.013559642913078</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.13149808528924</v>
+        <v>12.64673546204548</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.46928062492629</v>
+        <v>15.47751418696206</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>33.60913204964795</v>
+        <v>34.81886751060785</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.82782930536761</v>
+        <v>12.53446942155696</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>11.3867958100055</v>
+        <v>11.27249460046586</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>11.87427761025138</v>
+        <v>11.41648016178967</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>19.60638833028704</v>
+        <v>19.54117055927072</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>21.28234279520476</v>
+        <v>20.02616603638102</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>10.17503430962314</v>
+        <v>10.46410010749467</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>12.48625748794964</v>
+        <v>12.30722507144757</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>24.33507246737774</v>
+        <v>24.34378263455217</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>14.51632990043518</v>
+        <v>13.87206979027074</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>5.9786820234025</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45.26224663492378</v>
+        <v>45.26224663492379</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>20.80961537733675</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.457281180141641</v>
+        <v>5.52044734744578</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.266558729881989</v>
+        <v>4.138174347422618</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.271522226605042</v>
+        <v>3.302984666748455</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36.0171558649927</v>
+        <v>36.85655362758413</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>13.74145963884976</v>
+        <v>13.27589402198909</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.544877086810604</v>
+        <v>5.919085827685791</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.32860842334299</v>
+        <v>3.396315342304789</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>44.14428168497035</v>
+        <v>44.20927139068753</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>9.362641206160465</v>
+        <v>9.120039190531314</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6.063373521282319</v>
+        <v>6.207060427570499</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4.082778139502208</v>
+        <v>4.108652550476741</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>41.87630474865139</v>
+        <v>42.58638593159628</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.78863787625021</v>
+        <v>12.51129714240897</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.48640327865145</v>
+        <v>12.13413586779485</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.42154358232927</v>
+        <v>11.1135364135205</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>55.14151324806792</v>
+        <v>54.03856347598699</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>30.4727994993284</v>
+        <v>29.5625228529296</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>21.78247109695113</v>
+        <v>22.07291898438699</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.18573362788259</v>
+        <v>13.55704392712556</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>62.18366865892368</v>
+        <v>62.33654635250378</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>16.75551067298336</v>
+        <v>16.26831498453456</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14.14609785204582</v>
+        <v>14.54606966080606</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9.666016692713038</v>
+        <v>10.13661934485516</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>55.25919180270893</v>
+        <v>56.27771010587653</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>8.458649382713546</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8.562703443638011</v>
+        <v>8.562703443638009</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>5.417405337125066</v>
@@ -1361,7 +1361,7 @@
         <v>10.92403709971126</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>9.770684415679916</v>
+        <v>9.770684415679922</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>8.449670077369905</v>
@@ -1373,7 +1373,7 @@
         <v>9.491471312991234</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>9.071533203867652</v>
+        <v>9.071533203867654</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.983703472600535</v>
+        <v>4.694442123170633</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.939723678348602</v>
+        <v>3.926635760929647</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.763938744204055</v>
+        <v>4.037904950299465</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5.006290721368066</v>
+        <v>5.036522042875338</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3.335568471383831</v>
+        <v>3.264719962520736</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>4.235087150100069</v>
+        <v>4.480252622090797</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>5.424709115540202</v>
+        <v>5.629969673433091</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>5.929035055744875</v>
+        <v>5.575039581691959</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>4.898852155977782</v>
+        <v>4.917039774245406</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4.832378558532312</v>
+        <v>4.723150842145044</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5.512438650629975</v>
+        <v>5.445402398674317</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>6.462388348368349</v>
+        <v>6.048794258073429</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>28.45413278109082</v>
+        <v>27.26399479695791</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.99820764259799</v>
+        <v>11.24585437869173</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24.06730131092059</v>
+        <v>22.275537913547</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.86485942691077</v>
+        <v>15.22597983903973</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>9.141142700883815</v>
+        <v>9.611075479424782</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>22.50326551962281</v>
+        <v>23.03845990438382</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>26.5689618404263</v>
+        <v>24.31933272037337</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>19.56891839214057</v>
+        <v>18.13696720935365</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>19.89682056209647</v>
+        <v>19.17133152029917</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12.19669730736348</v>
+        <v>11.87661574202358</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17.38444253637964</v>
+        <v>17.4236883023372</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>14.43931252051165</v>
+        <v>13.67085460873341</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>11.68398546817208</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26.81970870059289</v>
+        <v>26.81970870059287</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>8.12230939865306</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.524228822251704</v>
+        <v>6.531190790580287</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.207472020080284</v>
+        <v>5.314507576516352</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.915499752486836</v>
+        <v>8.90286535903188</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21.87199111649093</v>
+        <v>21.5608747756683</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.508839684995527</v>
+        <v>5.696421056298487</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.205552128005748</v>
+        <v>4.990081220636736</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>10.30914311626339</v>
+        <v>10.30543458366956</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>16.33882993549372</v>
+        <v>16.14843903060342</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.75535534386288</v>
+        <v>6.758292050058662</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5.915912390027456</v>
+        <v>5.790500595246113</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10.22868330071722</v>
+        <v>10.3484094756716</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>19.97353650900531</v>
+        <v>19.97450290704318</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.06691433437951</v>
+        <v>12.05153064501217</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.14584157677757</v>
+        <v>11.22749678744576</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.27956453660643</v>
+        <v>14.9916962290267</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>33.44823469616741</v>
+        <v>34.03864551387949</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.78299431638001</v>
+        <v>11.576350705185</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.90767553196315</v>
+        <v>10.68217440458348</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.31087609084067</v>
+        <v>16.16638311521064</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>23.2756162333665</v>
+        <v>24.27672515558546</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.65044438040576</v>
+        <v>10.91782513555679</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10.34555273647183</v>
+        <v>9.921809899667691</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14.63688126284579</v>
+        <v>14.82072446809582</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>26.92647936014564</v>
+        <v>26.77329864400943</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>10.90797606616154</v>
+        <v>10.87916070097498</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6.085656253491952</v>
+        <v>5.980953970811962</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6.434388706461553</v>
+        <v>6.193626674293201</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26.36963411251115</v>
+        <v>26.00576374764661</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>6.924269326934779</v>
+        <v>6.816608986831108</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>6.874539198175055</v>
+        <v>6.708712581918054</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>7.951128821226306</v>
+        <v>7.968539802018324</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>19.57668592080852</v>
+        <v>19.6522408660909</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>10.11646846907969</v>
+        <v>10.0310067031537</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7.012735649314768</v>
+        <v>6.908457193158812</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7.702529538350661</v>
+        <v>7.894148985180922</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>24.6640202340839</v>
+        <v>24.59028261045608</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>17.25388675236799</v>
+        <v>17.27950314842247</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.3578015477051</v>
+        <v>10.29793891394312</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12.17041870149336</v>
+        <v>11.84246108506884</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>32.96744689082776</v>
+        <v>33.13954376046402</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>12.34575448444514</v>
+        <v>12.64456590973993</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>11.63519792283495</v>
+        <v>11.72632359297616</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>15.30174671416882</v>
+        <v>15.11651002166108</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>28.04470209661003</v>
+        <v>28.25542381826234</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>14.82519019547423</v>
+        <v>14.80587121293245</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>10.22344812308173</v>
+        <v>9.970305877670746</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12.06509637862901</v>
+        <v>12.40059128195377</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>29.92887563569588</v>
+        <v>29.8889165676086</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>10.02413635760789</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18.46280067646454</v>
+        <v>18.46280067646455</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>8.592174409140638</v>
@@ -1769,7 +1769,7 @@
         <v>10.35706670702643</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>16.84994131419994</v>
+        <v>16.84994131419993</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>9.494764633712876</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.772071340641194</v>
+        <v>8.806802513868234</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.773153549678091</v>
+        <v>7.742572527849237</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8.682846301879605</v>
+        <v>8.793528421107371</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16.56624554243832</v>
+        <v>16.62793247066035</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>7.420301953738024</v>
+        <v>7.400011574387769</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.148887551375473</v>
+        <v>7.298179072733382</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>8.980026864733443</v>
+        <v>8.894911488758323</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>15.1574926698637</v>
+        <v>15.26457745649989</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>8.558674126504659</v>
+        <v>8.593964758242686</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7.791034728117315</v>
+        <v>7.805324830228534</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9.141017361941554</v>
+        <v>9.163266454368474</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>16.5048859860886</v>
+        <v>16.5458049781932</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.63925614828783</v>
+        <v>11.61667511259758</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.51788215341345</v>
+        <v>10.36562324500042</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.55308555737196</v>
+        <v>11.77505790133356</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20.55373152906623</v>
+        <v>20.22937847485182</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.05444615010455</v>
+        <v>9.958067363933349</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>9.868716319399496</v>
+        <v>10.18312371736439</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>12.01270523099493</v>
+        <v>12.08507204335396</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>18.88737572690148</v>
+        <v>18.80180851088397</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.63534319580461</v>
+        <v>10.55205013455345</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9.754396571892306</v>
+        <v>9.690600953216078</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11.31308975245111</v>
+        <v>11.31228666118901</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>19.09614637217229</v>
+        <v>19.24326098474376</v>
       </c>
     </row>
     <row r="31">
